--- a/assets/RPP_Dataset - Copy.xlsx
+++ b/assets/RPP_Dataset - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rag-Vector-DB\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E273BA3-1BCB-48F0-86FD-8BD5DA41C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BDA12-9855-49BD-9FD1-BDB7E9D07F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CA81EEF-E1C1-4348-B691-E48AE177628C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
   <si>
     <t>Disease Name</t>
   </si>
@@ -548,6 +548,127 @@
   </si>
   <si>
     <t>Haldi, Lahsun, Thulasi, Kapoor, Neem, Jeera</t>
+  </si>
+  <si>
+    <t>Lice</t>
+  </si>
+  <si>
+    <t>goat, cow</t>
+  </si>
+  <si>
+    <t>Small, white lice lay eggs on the feathers; lice moving on skin and feathers; reduced egg production; slower weight gain; birds constantly peck at themselves or scratch themselves with their beak.</t>
+  </si>
+  <si>
+    <t>Poor hygiene and sanitation, Direct contact with infested birds, Infested nesting areas or bedding, Overcrowding, Exposure to lice-carrying wild birds.</t>
+  </si>
+  <si>
+    <t>garlic, ginger</t>
+  </si>
+  <si>
+    <t>Take garlic 5 gm and ginger 5 gm and grind them together and mix them in drinking
+water. Give this mixture to the chickens once a day for 3 days. This quantity is
+sufficient for 10 chickens.</t>
+  </si>
+  <si>
+    <t>Mycotoxicosis</t>
+  </si>
+  <si>
+    <t>Chickens, Ducks, Turkeys, Cattle, Pigs, Sheep, Goats, Horses</t>
+  </si>
+  <si>
+    <t>This disease is caused by toxic substances produced by the fungus Aspergillus, which grows in moist feedstuffs like peanuts and corn. Affected chickens experience stunted growth, reduced weight gain, and eventually death. Upon examination, the liver will be found to be enlarged with blood streaks and spots. The abdomen will be filled with fluid, and there will be inflammation of the intestines.</t>
+  </si>
+  <si>
+    <t>Consumption of moldy or spoiled feed contaminated with Aspergillus fungus.
+Moist conditions in feedstuffs like peanuts and corn that promote fungal growth.
+Improper storage of feed, especially in humid or wet environments.
+Rainy seasons, leading to mold development in grains.</t>
+  </si>
+  <si>
+    <t>leafy greens like Amaranthus, Bhringaraj (Eclipta prostrata) and Bhui aonla
+(Phyllanthus niruri).</t>
+  </si>
+  <si>
+    <t>Avoid including moldy or spoiled peanut meal or corn in the chicken feed. Feed the
+chickens leafy greens like Amaranthus, Bhringaraj (Eclipta prostrata) and Bhui aonla
+(Phyllanthus niruri). For a short period during the illness, reduce the protein and fat
+content in the feed and then return to a normal diet once the liver has recovered.
+During the rainy season, take extra care to prevent moldy and spoiled feed from
+being included in the chicken feed.</t>
+  </si>
+  <si>
+    <t>chicken wounds</t>
+  </si>
+  <si>
+    <t>Wounds occur due to chickens fighting and pecking each other or due to injuries from sharp objects.</t>
+  </si>
+  <si>
+    <t>Fighting and pecking among chickens.
+Injuries from sharp objects in the environment.
+Aggressive behavior due to overcrowding or stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh turmeric rhizome and a clove of garlic, coconut oil, pulp of Aloe vera, turmeric
+powder, </t>
+  </si>
+  <si>
+    <t>Grind a fresh turmeric rhizome and a clove of
+garlic together and mix with coconut oil. Apply
+this paste to the wound.
+ Grind pulp of Aloe vera along with turmeric
+powder and apply to the wound. Repeat this application till the point of cure.</t>
+  </si>
+  <si>
+    <t>Panchakavya</t>
+  </si>
+  <si>
+    <t>Chickens</t>
+  </si>
+  <si>
+    <t>100 gm of cow dung
+100 ml of cow urine
+100 ml of cow milk
+100 ml of cow curd
+10 gm of ghee
+1 banana
+100 gm of jaggery</t>
+  </si>
+  <si>
+    <t>Panchakavya is prepared using 5 products obtained from a cow. These include: 100
+gm of cow dung, 100 ml of cow urine, 100 ml of cow milk, 100 ml of cow curd, and
+10 gm of ghee. Add 1 banana and 100 gm of jaggery to the above ingredients and
+mix well in a plastic container. Allow the mixture to ferment for 3 days before use.
+Store the Panchakavya in a covered container with a muslin cloth kept under shade
+to prevent flies from laying of eggs.</t>
+  </si>
+  <si>
+    <t>Maggot infested Wounds</t>
+  </si>
+  <si>
+    <t>Chickens develop lumps that, when they burst,
+form wounds. Maggots develop in these wounds.
+Sometimes wounds occur due to mechanical
+injuries or fighting with other birds.</t>
+  </si>
+  <si>
+    <t>Fighting with other chickens, leading to injuries.
+Mechanical injuries from sharp objects or rough handling.
+Infections that result in the development of lumps, which can burst and become wound sites for maggots.
+Poor sanitation and unhygienic living conditions, leading to maggot infestation in open wounds.</t>
+  </si>
+  <si>
+    <t>Patharchatta (Elytraria acaulis), Nirgundi (Vitex negundo), Neem leaves, Neem oil, Safed Aak (Datura metel), Thulsi (Ocimum sanctum), Slacked lime, Turmeric powder, Ashta Choornam.</t>
+  </si>
+  <si>
+    <t>Take a handful each of Patharchatta (Elytraria acaulis), Nirgundi (Vitex
+negundo), neem leaves. Grind them to extract the juice 100 ml. Add this juice
+to 100 ml of neem oil and boil. Then store this in a bottle. Apply 3 drops of
+this oil to the wounds, twice a day.
+ Take leaves of 25 gm of Safed Aak (Datura metel) and Thulsi (Ocimum
+sanctum) and grind them and add 5 gm of slacked lime and half a teaspoon of
+turmeric powder and make a paste. Apply this paste and cover the wound
+thoroughly.
+Internal Medication: Administer 15 gm of Ashta Choornam internally.</t>
   </si>
 </sst>
 </file>
@@ -589,12 +710,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24584B9-B52C-411B-BAFB-094DF5D7B5CE}">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,14 +1066,14 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="L1" t="s">
         <v>61</v>
       </c>
@@ -970,14 +1091,14 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L3" si="0">CONCATENATE(I2,",",J2,",",K2)</f>
         <v>,,</v>
@@ -1001,14 +1122,14 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
         <v>,,</v>
@@ -1032,14 +1153,14 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="L4" t="s">
         <v>51</v>
       </c>
@@ -1057,14 +1178,14 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="L5" t="s">
         <v>51</v>
       </c>
@@ -1082,14 +1203,14 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="L6" t="s">
         <v>52</v>
       </c>
@@ -1108,14 +1229,14 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="L7" t="s">
         <v>52</v>
       </c>
@@ -1134,14 +1255,14 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="L8" t="s">
         <v>53</v>
       </c>
@@ -1162,14 +1283,14 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="L9" t="s">
         <v>53</v>
       </c>
@@ -1190,14 +1311,14 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="L10" t="s">
         <v>54</v>
       </c>
@@ -1218,14 +1339,14 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="L11" t="s">
         <v>54</v>
       </c>
@@ -1246,14 +1367,14 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L39" si="1">CONCATENATE(I12,",",J12,",",K12)</f>
         <v>,,</v>
@@ -1275,14 +1396,14 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1304,14 +1425,14 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1333,14 +1454,14 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1361,14 +1482,14 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1390,14 +1511,14 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1419,14 +1540,14 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="L18" t="s">
         <v>55</v>
       </c>
@@ -1449,14 +1570,14 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="L19" t="s">
         <v>55</v>
       </c>
@@ -1479,14 +1600,14 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
@@ -1505,14 +1626,14 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="L21" t="s">
         <v>18</v>
       </c>
@@ -1531,12 +1652,12 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1556,12 +1677,12 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1581,14 +1702,14 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1609,12 +1730,12 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1635,14 +1756,14 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1663,14 +1784,14 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1690,14 +1811,14 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1717,12 +1838,12 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1742,12 +1863,12 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1767,12 +1888,12 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1792,12 +1913,12 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1817,14 +1938,14 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="L33" t="s">
         <v>29</v>
       </c>
@@ -1842,12 +1963,12 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1866,12 +1987,12 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1890,12 +2011,12 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1915,12 +2036,12 @@
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1939,12 +2060,12 @@
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>56</v>
@@ -1961,12 +2082,12 @@
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
@@ -1985,12 +2106,12 @@
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="1"/>
       <c r="L40" s="1" t="s">
         <v>56</v>
@@ -2010,12 +2131,12 @@
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="L41" s="1" t="s">
@@ -2036,12 +2157,12 @@
       <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="L42" s="1" t="s">
@@ -2063,12 +2184,12 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="L43" s="1" t="s">
@@ -2083,8 +2204,129 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
+    <row r="44" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="L44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="L45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="L46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="M47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="L48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="48">
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
@@ -2128,7 +2370,13 @@
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/RPP_Dataset - Copy.xlsx
+++ b/assets/RPP_Dataset - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rag-Vector-DB\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3BDA12-9855-49BD-9FD1-BDB7E9D07F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC436F7-EA1F-46E2-9D07-B8D2AA9B8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CA81EEF-E1C1-4348-B691-E48AE177628C}"/>
   </bookViews>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24584B9-B52C-411B-BAFB-094DF5D7B5CE}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/RPP_Dataset - Copy.xlsx
+++ b/assets/RPP_Dataset - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rag-Vector-DB\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC436F7-EA1F-46E2-9D07-B8D2AA9B8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34F397-C6E5-4A82-B40B-245D75C7EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CA81EEF-E1C1-4348-B691-E48AE177628C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>Disease Name</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>dog</t>
-  </si>
-  <si>
-    <t>Panchagavya for Animal Health</t>
   </si>
   <si>
     <t>Milk fever or Calcium Deficiency</t>
@@ -619,9 +616,6 @@
 powder and apply to the wound. Repeat this application till the point of cure.</t>
   </si>
   <si>
-    <t>Panchakavya</t>
-  </si>
-  <si>
     <t>Chickens</t>
   </si>
   <si>
@@ -670,14 +664,93 @@
 thoroughly.
 Internal Medication: Administer 15 gm of Ashta Choornam internally.</t>
   </si>
+  <si>
+    <t>Panchagavya for Animal Health(infertility or repeat breeding)</t>
+  </si>
+  <si>
+    <t>Panchakavya(infertility or repeat breeding)</t>
+  </si>
+  <si>
+    <t>Fracture and broken leg</t>
+  </si>
+  <si>
+    <t>Fractures of the bone occur due to accidents or sudden fall of animals or aggression with other animals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black gram 200 gm,add 3 egg whites of country chicken ,100 ml of sesame oil ,Take tender leaves and primordial region of Asthibhanga (Cissus quadrangularis), rhizome of Ashwagandha (Withania somnifera) each 10 gm,300 ml of milk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">External medicine
+Take black gram 200 gm and made into powder and add 3 egg whites of country chicken and mix it well. This paste is to be applied on the wounded area and put bamboo sticks around the affected bone and tie it with a cotton cloth around it. After tieing it, pour 100 ml of sesame oil on the upper part of the cotton cloth. After 15 days remove the cloth and continue the same procedure 
+Internal medicine :Take tender leaves and primordial region of Asthibhanga (Cissus quadrangularis), rhizome of Ashwagandha (Withania somnifera) each 10 gm and ground them well. Add 300 ml of milk and mix it well and administered orally. </t>
+  </si>
+  <si>
+    <t>To Increase Milk</t>
+  </si>
+  <si>
+    <t>cow,goat</t>
+  </si>
+  <si>
+    <t>Bottle gourd or white coloured Pumpkin 100 gm, Coconut (grated) 100 gm, Black gram 100gm, Jaggery 100 gm. Black gram is to be soaked for overnight. It is to be ground well along with coconut, bottle gourd (chopped) and jaggery. Then the paste like substance is to be fed to the animal. It should be given once a day for 2-5 days</t>
+  </si>
+  <si>
+    <t>Fracture of horn</t>
+  </si>
+  <si>
+    <t>Occurs due to accidents, cow bumping, broken horns, due to incidence of disease etc</t>
+  </si>
+  <si>
+    <t>1. Add sugar and apply it on the affected area.
+2. Add required amount of kanphuli (Tridax procumbens) and turmeric powder and mix it in coconut oil.
+3. Dip a cotton cloth in the latex of baniyan tree or cactus Spiral spruge (Euphorbia tortilis) paste and wrap it around the area.
+4. Apply Mathaan thaila / ointment on the affected area.</t>
+  </si>
+  <si>
+    <t>sugar,kanphuli (Tridax procumbens),turmeric powder,coconut oil,baniyan tree or cactus Spiral spruge (Euphorbia tortilis),ointment</t>
+  </si>
+  <si>
+    <t>Pumpkin 100 gm, Coconut (grated) 100 gm, Black gram 100gm, Jaggery 100 gm,coconut</t>
+  </si>
+  <si>
+    <t>Cow unable to stand up or falling suddenly</t>
+  </si>
+  <si>
+    <t>The head hangs. The cow is tired and has trembling legs. The leg does not stand still, the leg bends. The forefoot is the first to be affected. Does not move. The eyes twitched. Eats soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three eggs of country chicken,curry leaves,a handful of pirandai,a handful of drumstick leaves,a handful of agathi keerai,a handful of thaluthalai,200 gm of coconut inflorescence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A handful of rock salt is placed in the tongue of animal. Take three eggs of country chicken administered orally and give them once a day for two days. Take a handful of curry leaves (Murraya koenigii), a handful of pirandai (Cissus quadrangularis), a handful of drumstick leaves (Moringa oleifera), a handful of agathi keerai (Sesbania grandiflora), a handful of thaluthalai (Clerodendrum phlomides) and 200 gm of coconut inflorescence and all are ground well together. Then mix it with ½ lit. of coconut milk and administered orally. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -704,18 +777,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24584B9-B52C-411B-BAFB-094DF5D7B5CE}">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="93" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,22 +1147,22 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
@@ -1091,23 +1172,23 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="L2" t="str">
         <f t="shared" ref="L2:L3" si="0">CONCATENATE(I2,",",J2,",",K2)</f>
         <v>,,</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1122,23 +1203,23 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="L3" t="str">
         <f t="shared" si="0"/>
         <v>,,</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1153,22 +1234,22 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="L4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -1178,22 +1259,22 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
@@ -1203,22 +1284,22 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P6" s="1"/>
     </row>
@@ -1229,22 +1310,22 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P7" s="1"/>
     </row>
@@ -1255,22 +1336,22 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1283,22 +1364,22 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1311,22 +1392,22 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1339,22 +1420,22 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1367,23 +1448,23 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L39" si="1">CONCATENATE(I12,",",J12,",",K12)</f>
         <v>,,</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1396,23 +1477,23 @@
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1425,23 +1506,23 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1454,23 +1535,23 @@
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1482,23 +1563,23 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1511,23 +1592,23 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1540,22 +1621,22 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="L18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1570,22 +1651,22 @@
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1600,22 +1681,22 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="L20" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P20" s="1"/>
     </row>
@@ -1626,22 +1707,22 @@
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="L21" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="1"/>
     </row>
@@ -1652,21 +1733,21 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="1"/>
     </row>
@@ -1677,21 +1758,21 @@
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="1"/>
     </row>
@@ -1702,23 +1783,23 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -1730,21 +1811,21 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1756,23 +1837,23 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1784,23 +1865,23 @@
       <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P27" s="1"/>
     </row>
@@ -1811,23 +1892,23 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P28" s="1"/>
     </row>
@@ -1838,21 +1919,21 @@
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
       <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P29" s="1"/>
     </row>
@@ -1863,21 +1944,21 @@
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P30" s="1"/>
     </row>
@@ -1888,21 +1969,21 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P31" s="1"/>
     </row>
@@ -1913,21 +1994,21 @@
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P32" s="1"/>
     </row>
@@ -1938,22 +2019,22 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="L33" t="s">
         <v>29</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1963,21 +2044,21 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="L34" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1987,354 +2068,921 @@
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="L35" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="L36" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="L37" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="L39" t="str">
         <f t="shared" si="1"/>
         <v>,,</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="L44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="L45" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="L46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="M47" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B47" t="s">
+      <c r="N47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="M47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="L48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="M48" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="L48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>135</v>
-      </c>
+    </row>
+    <row r="49" spans="1:14" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="M49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="M50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="M51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="M52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
+  <mergeCells count="135">
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C50:E50"/>
     <mergeCell ref="C42:H42"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="C6:H6"/>
@@ -2351,16 +2999,24 @@
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C28:H28"/>
@@ -2370,11 +3026,6 @@
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
